--- a/src/ExcelFile/PriceTableTemplate/TemplateImportPriceTable.xlsx
+++ b/src/ExcelFile/PriceTableTemplate/TemplateImportPriceTable.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>MaKH</t>
   </si>
@@ -95,13 +95,16 @@
     <t>DonGiaVnd</t>
   </si>
   <si>
-    <t>DonGiaUsd</t>
-  </si>
-  <si>
     <t>Đơn Giá VND</t>
   </si>
   <si>
-    <t>Đơn Giá USD</t>
+    <t>LoaiTienTe</t>
+  </si>
+  <si>
+    <t>Loại Tiền Tệ</t>
+  </si>
+  <si>
+    <t>VND</t>
   </si>
 </sst>
 </file>
@@ -124,7 +127,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -143,12 +146,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -162,13 +159,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -453,7 +449,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,8 +489,8 @@
       <c r="G1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>23</v>
+      <c r="H1" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>6</v>
@@ -526,7 +522,7 @@
         <v>14</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>25</v>
@@ -542,25 +538,27 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>99959595959</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>231</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>228</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>171</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <v>900000</v>
       </c>
-      <c r="H3" s="6"/>
+      <c r="H3" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="I3" s="2" t="s">
         <v>21</v>
       </c>
